--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from What Matters Con" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from VA Whole Health " r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-21T16:21:33+00:00</t>
+    <t>2024-08-27T18:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,13 +129,13 @@
     <t>Surroundings</t>
   </si>
   <si>
-    <t>personalDevelopment</t>
+    <t>personal-development</t>
   </si>
   <si>
     <t>Personal Development</t>
   </si>
   <si>
-    <t>spiritSoul</t>
+    <t>spirit-and-soul</t>
   </si>
   <si>
     <t>Spirit &amp; Soul</t>
@@ -147,7 +147,7 @@
     <t>Family, Friends &amp; Co-Workers</t>
   </si>
   <si>
-    <t>professionalCare</t>
+    <t>professional-care</t>
   </si>
   <si>
     <t>Professional Care</t>
@@ -159,7 +159,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/what-matters-concepts</t>
+    <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from VA Whole Health " r:id="rId4" sheetId="2"/>
+    <sheet name="Include from My Lotus Lifesty" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -160,6 +161,48 @@
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
+  </si>
+  <si>
+    <t>Healthy Body</t>
+  </si>
+  <si>
+    <t>Healthy Mind</t>
+  </si>
+  <si>
+    <t>Nourishment</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>Restful Sleep</t>
+  </si>
+  <si>
+    <t>physical-environment</t>
+  </si>
+  <si>
+    <t>Physical Environment</t>
+  </si>
+  <si>
+    <t>fulfillment-purpose</t>
+  </si>
+  <si>
+    <t>Fulfillment &amp; Purpose</t>
+  </si>
+  <si>
+    <t>creativity-play</t>
+  </si>
+  <si>
+    <t>Creativity &amp; Play</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/CodeSystem/mtnlotus-concepts</t>
   </si>
 </sst>
 </file>
@@ -533,4 +576,109 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +82,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example value set to identify focus areas from the VA Circle of Health. Whole Health is VA’s approach to care that supports your health and well-being. Whole Health centers around What Matters to you, not what is the matter with you. This means your health team will get to know you as a person, before working with you to develop a personalized health plan based on your values, needs, and goals.</t>
+    <t>Example value set to identify focus areas from the VA Circle of Health. Whole Health is VA's approach to care that supports your health and well-being. Whole Health centers around What Matters to you, not what is the matter with you. This means your health team will get to know you as a person, before working with you to develop a personalized health plan based on your values, needs, and goals.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -398,66 +401,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -479,98 +484,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -592,90 +597,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from VA Whole Health " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from My Lotus Lifesty" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -164,48 +163,6 @@
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
-  </si>
-  <si>
-    <t>Healthy Body</t>
-  </si>
-  <si>
-    <t>Healthy Mind</t>
-  </si>
-  <si>
-    <t>Nourishment</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>Restful Sleep</t>
-  </si>
-  <si>
-    <t>physical-environment</t>
-  </si>
-  <si>
-    <t>Physical Environment</t>
-  </si>
-  <si>
-    <t>fulfillment-purpose</t>
-  </si>
-  <si>
-    <t>Fulfillment &amp; Purpose</t>
-  </si>
-  <si>
-    <t>creativity-play</t>
-  </si>
-  <si>
-    <t>Creativity &amp; Play</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/mtnlotus-concepts</t>
   </si>
 </sst>
 </file>
@@ -581,109 +538,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T16:42:31+00:00</t>
+    <t>2024-09-06T21:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from VA Whole Health " r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T21:25:34+00:00</t>
+    <t>2024-09-10T20:59:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T20:59:56+00:00</t>
+    <t>2024-09-16T23:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T23:28:14+00:00</t>
+    <t>2024-09-17T14:31:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T14:31:31+00:00</t>
+    <t>2024-09-17T18:49:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T18:49:04+00:00</t>
+    <t>2024-09-17T23:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T23:38:01+00:00</t>
+    <t>2024-09-21T00:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-21T00:47:01+00:00</t>
+    <t>2024-09-22T11:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-22T11:40:07+00:00</t>
+    <t>2024-09-23T01:04:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T01:04:09+00:00</t>
+    <t>2024-10-22T17:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:57:32+00:00</t>
+    <t>2024-10-22T17:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T17:59:45+00:00</t>
+    <t>2024-10-23T15:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T15:58:47+00:00</t>
+    <t>2024-10-23T18:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:44:18+00:00</t>
+    <t>2024-10-23T18:49:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:49:00+00:00</t>
+    <t>2024-10-24T19:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T19:50:25+00:00</t>
+    <t>2024-10-25T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/what-matters-focus-areas</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/what-matters-focus-areas</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,25 +60,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T20:06:08+00:00</t>
+    <t>2024-11-25T08:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC</t>
+    <t>HL7 International / Patient Care</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Mountain Lotus WellBeing LLC (http://mtnlotus.com)</t>
+    <t>HL7 International / Patient Care (http://www.hl7.org/Special/committees/patientcare, patientcare@lists.HL7.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -162,7 +162,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://mtnlotus.com/uv/pco/CodeSystem/va-whole-health</t>
+    <t>http://hl7.org/fhir/us/pco/CodeSystem/va-whole-health</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T08:40:55+00:00</t>
+    <t>2024-12-09T23:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:33:01+00:00</t>
+    <t>2024-12-10T23:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T23:26:43+00:00</t>
+    <t>2024-12-11T00:46:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-what-matters-focus-areas.xlsx
+++ b/ValueSet-what-matters-focus-areas.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T00:46:43+00:00</t>
+    <t>2024-12-12T02:30:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
